--- a/LF/TAS/STP/2024/st_lf_tas2_2412_2_partcipants.xlsx
+++ b/LF/TAS/STP/2024/st_lf_tas2_2412_2_partcipants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\STP\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E653B9C-0E0D-4D62-8FA6-7B84D1F8FEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD54DEC-8D96-492C-8A9E-63EB230101F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
   <si>
     <t>type</t>
   </si>
@@ -75,9 +75,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>p_recorderID</t>
-  </si>
-  <si>
     <t>Introduzir o ID do gravador</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>La valeur ne doit pas être supérieure à l'âge</t>
   </si>
   <si>
-    <t>p_GenerateID</t>
-  </si>
-  <si>
     <t>Registar o seguinte código de identificação único para o respondente numa lista separada e em cada teste(s) de diagnóstico administrado(s)</t>
   </si>
   <si>
@@ -363,12 +357,6 @@
     <t>Portugese</t>
   </si>
   <si>
-    <t>st_lf_tas2_2412_2_partcipants</t>
-  </si>
-  <si>
-    <t>(2024 Dez) 2. TAS2 FL - Formulário de participantes</t>
-  </si>
-  <si>
     <t>p_eu</t>
   </si>
   <si>
@@ -409,13 +397,49 @@
   </si>
   <si>
     <t>${p_cluster_name}</t>
+  </si>
+  <si>
+    <t>p_index</t>
+  </si>
+  <si>
+    <t>índice</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>st_lf_tas2_2412_2_partcipants_v2</t>
+  </si>
+  <si>
+    <t>(2024 Dez) 2. TAS2 FL - Formulário de participantes V2</t>
+  </si>
+  <si>
+    <t>p_recorder</t>
+  </si>
+  <si>
+    <t>concat(${p_recorder}, '_', ${p_cluster_id}, '_', ${p_index})</t>
+  </si>
+  <si>
+    <t>bind::db_add_col_4</t>
+  </si>
+  <si>
+    <t>bind::db_add_col_5</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>${p_cluster_id}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,8 +495,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,8 +521,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -545,11 +581,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -609,6 +660,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,13 +957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -909,7 +975,7 @@
     <col min="5" max="5" width="47.5" style="14" customWidth="1"/>
     <col min="6" max="6" width="47.375" style="14" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="14" customWidth="1"/>
     <col min="9" max="10" width="29.5" style="14" customWidth="1"/>
     <col min="11" max="11" width="20.375" style="14" customWidth="1"/>
     <col min="12" max="12" width="39.875" style="14" customWidth="1"/>
@@ -919,10 +985,11 @@
     <col min="16" max="16" width="36.625" style="14" customWidth="1"/>
     <col min="17" max="17" width="11.75" style="14" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="22.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11" style="14"/>
+    <col min="21" max="22" width="18" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1" ht="37.5">
+    <row r="1" spans="1:22" s="13" customFormat="1" ht="37.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -972,69 +1039,75 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="13" customFormat="1" ht="63">
+        <v>117</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="13" customFormat="1" ht="63">
       <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:20" s="13" customFormat="1">
+    <row r="3" spans="1:22" s="13" customFormat="1">
       <c r="A3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="16"/>
@@ -1044,28 +1117,28 @@
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="13" customFormat="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="13" customFormat="1">
       <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="16"/>
@@ -1075,31 +1148,31 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="13" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="13" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="16"/>
@@ -1109,65 +1182,65 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="13" customFormat="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="13" customFormat="1">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="Q6" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="13" customFormat="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="13" customFormat="1">
       <c r="A7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="15"/>
@@ -1177,25 +1250,25 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:20" s="13" customFormat="1">
+    <row r="8" spans="1:22" s="13" customFormat="1">
       <c r="A8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="15"/>
@@ -1203,131 +1276,131 @@
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
       <c r="K8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:20" s="13" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:22" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="K9" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:20" s="13" customFormat="1" ht="31.5">
+    <row r="10" spans="1:22" s="13" customFormat="1" ht="31.5">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="K10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:20" s="13" customFormat="1" ht="47.25">
-      <c r="A11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>59</v>
+    <row r="11" spans="1:22" s="30" customFormat="1">
+      <c r="A11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="18" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="13" customFormat="1" ht="47.25">
+      <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:20" s="13" customFormat="1">
-      <c r="A12" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="B12" s="15" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="16"/>
@@ -1335,29 +1408,39 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="M12" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:20" s="13" customFormat="1" ht="47.25">
+      <c r="P12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="13" customFormat="1">
       <c r="A13" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="16"/>
@@ -1365,29 +1448,29 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="15" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:20" s="13" customFormat="1" ht="47.25">
+    <row r="14" spans="1:22" s="13" customFormat="1" ht="47.25">
       <c r="A14" s="16" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="16"/>
@@ -1395,80 +1478,88 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:20" s="13" customFormat="1" ht="31.5">
+    <row r="15" spans="1:22" s="13" customFormat="1" ht="47.25">
       <c r="A15" s="16" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
-        <v>77</v>
+      <c r="K15" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="L15" s="16"/>
-      <c r="M15" s="15"/>
+      <c r="M15" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:20" s="13" customFormat="1">
+    <row r="16" spans="1:22" s="13" customFormat="1" ht="31.5">
       <c r="A16" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="K16" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:16" s="13" customFormat="1">
       <c r="A17" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1481,27 +1572,49 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" s="13" customFormat="1">
       <c r="A18" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+        <v>80</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1529,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1544,128 +1657,128 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
         <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1794,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1693,24 +1806,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
